--- a/exampleProblems/testexample/testexample.xlsx
+++ b/exampleProblems/testexample/testexample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://durhamuniversity-my.sharepoint.com/personal/vsmw51_durham_ac_uk/Documents/projects/programming/2022/python/python/rdkit37/projects/simpleNMR/exampleProblems/testexample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_9EE0CA4E2633265C69D940F2190CB780267DA03A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BC1B08F7-F1DA-4C8B-95AF-157973396408}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_E40DEE4C92F4F1DC36A033EFDAC309F979C4B3EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EBE6032B-F2E7-AF40-BDE4-7AD0687B3607}"/>
   <bookViews>
-    <workbookView xWindow="7275" yWindow="990" windowWidth="20295" windowHeight="13620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7280" yWindow="1000" windowWidth="20300" windowHeight="13620" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="molecule" sheetId="1" r:id="rId1"/>
@@ -20,16 +20,14 @@
     <sheet name="COSY" sheetId="5" r:id="rId5"/>
     <sheet name="HSQC" sheetId="6" r:id="rId6"/>
     <sheet name="HMBC" sheetId="7" r:id="rId7"/>
+    <sheet name="NOESY" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="200">
-  <si>
-    <t>smile</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="200">
   <si>
     <t>C9H12N2O</t>
   </si>
@@ -626,6 +624,9 @@
   </si>
   <si>
     <t>molecule</t>
+  </si>
+  <si>
+    <t>smiles</t>
   </si>
 </sst>
 </file>
@@ -1029,32 +1030,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
         <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1068,177 +1069,177 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" t="s">
         <v>31</v>
       </c>
-      <c r="G6" t="s">
-        <v>32</v>
-      </c>
       <c r="H6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" t="s">
         <v>39</v>
-      </c>
-      <c r="I6" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1252,239 +1253,239 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G8" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1498,147 +1499,147 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1650,98 +1651,100 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:K1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>104</v>
-      </c>
       <c r="H1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D2" t="s">
         <v>106</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>107</v>
       </c>
-      <c r="E2" t="s">
-        <v>108</v>
-      </c>
       <c r="F2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1755,183 +1758,183 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>104</v>
-      </c>
       <c r="H1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1945,473 +1948,520 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>104</v>
-      </c>
       <c r="H1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I8" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I10" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I11" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I12" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G13" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I13" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I14" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F15" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I15" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F16" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G16" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I16" t="s">
-        <v>86</v>
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A2F298F-4702-2243-A5D1-A153B0F54046}">
+  <dimension ref="B1:K1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:K1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/exampleProblems/testexample/testexample.xlsx
+++ b/exampleProblems/testexample/testexample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://durhamuniversity-my.sharepoint.com/personal/vsmw51_durham_ac_uk/Documents/projects/programming/2022/python/python/rdkit37/projects/simpleNMR/exampleProblems/testexample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_E40DEE4C92F4F1DC36A033EFDAC309F979C4B3EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EBE6032B-F2E7-AF40-BDE4-7AD0687B3607}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_E40DEE4C92F4F1DC36A033EFDAC309F979C4B3EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CE07B447-E833-4EAD-B62D-E70883580FCE}"/>
   <bookViews>
-    <workbookView xWindow="7280" yWindow="1000" windowWidth="20300" windowHeight="13620" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2985" yWindow="1290" windowWidth="23880" windowHeight="13620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="molecule" sheetId="1" r:id="rId1"/>
@@ -1034,12 +1034,12 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>198</v>
       </c>
@@ -1047,7 +1047,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1067,11 +1067,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="8" width="9.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1097,7 +1102,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1126,7 +1131,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1155,7 +1160,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1184,7 +1189,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1213,7 +1218,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1253,9 +1258,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>40</v>
       </c>
@@ -1281,7 +1286,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1304,7 +1309,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1327,7 +1332,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1350,7 +1355,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1373,7 +1378,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1396,7 +1401,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1419,7 +1424,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1442,7 +1447,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1465,7 +1470,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1499,9 +1504,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>40</v>
       </c>
@@ -1527,7 +1532,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1550,7 +1555,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1573,7 +1578,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1596,7 +1601,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1619,7 +1624,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1655,9 +1660,9 @@
       <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>99</v>
       </c>
@@ -1689,7 +1694,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1718,7 +1723,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1758,9 +1763,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>99</v>
       </c>
@@ -1792,7 +1797,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1821,7 +1826,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1850,7 +1855,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1879,7 +1884,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1908,7 +1913,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1948,9 +1953,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>99</v>
       </c>
@@ -1982,7 +1987,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2011,7 +2016,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2040,7 +2045,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2069,7 +2074,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2098,7 +2103,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2127,7 +2132,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2156,7 +2161,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2185,7 +2190,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2214,7 +2219,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2243,7 +2248,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2272,7 +2277,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2301,7 +2306,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2330,7 +2335,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2359,7 +2364,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2388,7 +2393,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2426,13 +2431,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A2F298F-4702-2243-A5D1-A153B0F54046}">
   <dimension ref="B1:K1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>99</v>
       </c>
